--- a/.metadata/.plugins/org.eclipse.wst.server.core/tmp4/wtpwebapps/bpms/excel/loan/信贷合同明细模板.xlsx
+++ b/.metadata/.plugins/org.eclipse.wst.server.core/tmp4/wtpwebapps/bpms/excel/loan/信贷合同明细模板.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1035" yWindow="75" windowWidth="26415" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20535" windowHeight="4845"/>
   </bookViews>
   <sheets>
     <sheet name="贷款合同信息" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>业务员信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,53 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国建设银行</t>
-  </si>
-  <si>
-    <t>6217000010002153115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQJR-LO-BJ-BJ-01-2014050520450400000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好易联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛悦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佟海波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡铮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关健</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王艳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王金栓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于洪鑫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>经办人B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,34 +138,6 @@
   </si>
   <si>
     <t>IPC相关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘洪虎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>461431346461164</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14631313</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事业贷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -857,7 +783,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -929,27 +855,27 @@
     </row>
     <row r="3" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -964,7 +890,7 @@
       <c r="X3" s="14"/>
       <c r="Y3" s="14"/>
       <c r="Z3" s="14" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AA3" s="14"/>
       <c r="AB3" s="14"/>
@@ -981,91 +907,91 @@
     <row r="4" spans="1:33" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="V4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="W4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="X4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="Y4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="Z4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="W4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="X4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>41</v>
-      </c>
       <c r="AA4" s="11" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AC4" s="11" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AD4" s="11" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AE4" s="11" t="s">
         <v>1</v>
@@ -1076,105 +1002,39 @@
       <c r="AG4" s="11"/>
     </row>
     <row r="5" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2">
-        <v>41764</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="6">
-        <v>150000</v>
-      </c>
-      <c r="P5" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>36000</v>
-      </c>
-      <c r="R5" s="6">
-        <v>300</v>
-      </c>
-      <c r="S5" s="5">
-        <v>114000</v>
-      </c>
-      <c r="T5" s="5">
-        <v>13850</v>
-      </c>
-      <c r="U5" s="1">
-        <v>30</v>
-      </c>
-      <c r="V5" s="2">
-        <v>41789</v>
-      </c>
-      <c r="W5" s="2">
-        <v>42124</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>42130</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
